--- a/やったことメモ.xlsx
+++ b/やったことメモ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -79,6 +79,97 @@
   </si>
   <si>
     <t>bin/rails s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zenk0414</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rails new fwm -d mysql --skip-test-unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gemパッケージのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>READMEを書く</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MITライセンス文書を書く</t>
+    <rPh sb="8" eb="10">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムゾーンとロケールの設定</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/application.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェネレータの設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rspecのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bin/rails g rspec:install</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.rspecの--warnigsを削除</t>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>factory girlの設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spec/rails_helper.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーティングの設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/routes.rb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -425,67 +516,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/やったことメモ.xlsx
+++ b/やったことメモ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -170,6 +170,13 @@
   </si>
   <si>
     <t>config/routes.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラの設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J38"/>
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,6 +662,11 @@
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/やったことメモ.xlsx
+++ b/やったことメモ.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="step1" sheetId="1" r:id="rId1"/>
+    <sheet name="step2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -173,18 +173,145 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コントローラの設定</t>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>コントローラの箱作成</t>
+    <rPh sb="7" eb="8">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/errors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/staff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/view配下にディレクトリのみ出来上がる</t>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├─errors</t>
+  </si>
+  <si>
+    <t>│  └─not_found</t>
+  </si>
+  <si>
+    <t>├─layouts</t>
+  </si>
+  <si>
+    <t>├─management</t>
+  </si>
+  <si>
+    <t>│  ├─groups</t>
+  </si>
+  <si>
+    <t>│  ├─places</t>
+  </si>
+  <si>
+    <t>│  ├─projects</t>
+  </si>
+  <si>
+    <t>│  ├─sessions</t>
+  </si>
+  <si>
+    <t>│  ├─tasks</t>
+  </si>
+  <si>
+    <t>│  ├─top</t>
+  </si>
+  <si>
+    <t>│  └─users</t>
+  </si>
+  <si>
+    <t>└─staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ├─results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ├─sessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ├─tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ├─top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   └─users</t>
+  </si>
+  <si>
+    <t>-- step2へ --</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>managementのトップページを設置</t>
+    <rPh sb="18" eb="20">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/management/top/index.html.erb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/controllers/management/top_controller.rb</t>
+  </si>
+  <si>
+    <t>index追記</t>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規配置</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト全体のレイアウトを変更</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/layouts/application.html.erb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +324,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,8 +354,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -523,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J40"/>
+  <dimension ref="B2:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,6 +803,116 @@
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -678,12 +924,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/やったことメモ.xlsx
+++ b/やったことメモ.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="step1" sheetId="1" r:id="rId1"/>
     <sheet name="step2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gemfile" sheetId="3" r:id="rId3"/>
+    <sheet name="settings.yml" sheetId="4" r:id="rId4"/>
+    <sheet name="Memo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
@@ -169,10 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>config/routes.rb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コントローラの箱作成</t>
     <rPh sb="7" eb="8">
       <t>ハコ</t>
@@ -294,24 +292,401 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト全体のレイアウトを変更</t>
+    <t>app/views/layouts/application.html.erb</t>
+  </si>
+  <si>
+    <t>ヘッダフッタファイルを配置</t>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/views/common/_header.html.orb</t>
+  </si>
+  <si>
+    <t>app/views/common/_footer.html.erb</t>
+  </si>
+  <si>
+    <t>source 'https://rubygems.org'</t>
+  </si>
+  <si>
+    <t>ruby '2.1.0'</t>
+  </si>
+  <si>
+    <t>gem 'rails', '4.1.7'</t>
+  </si>
+  <si>
+    <t>gem 'mysql2'</t>
+  </si>
+  <si>
+    <t>gem 'uglifier', '&gt;= 1.3.0'</t>
+  </si>
+  <si>
+    <t>gem 'coffee-rails', '~&gt; 4.0.0'</t>
+  </si>
+  <si>
+    <t>gem 'jquery-rails'</t>
+  </si>
+  <si>
+    <t>gem 'turbolinks'</t>
+  </si>
+  <si>
+    <t>gem 'jbuilder', '~&gt; 2.0'</t>
+  </si>
+  <si>
+    <t>gem 'sdoc', '~&gt; 0.4.0',          group: :doc</t>
+  </si>
+  <si>
+    <t>gem 'spring',        group: :development</t>
+  </si>
+  <si>
+    <t>gem 'rails_config'</t>
+  </si>
+  <si>
+    <t>gem 'therubyracer', platforms: :ruby</t>
+  </si>
+  <si>
+    <t>gem 'bcrypt', '~&gt; 3.1.7'</t>
+  </si>
+  <si>
+    <t>gem 'nokogiri', '~&gt; 1.6.1'</t>
+  </si>
+  <si>
+    <t>gem 'rails-i18n', '~&gt; 4.0.1'</t>
+  </si>
+  <si>
+    <t>gem 'foreigner', '~&gt; 1.6.1'</t>
+  </si>
+  <si>
+    <t>gem 'kaminari', '~&gt;0.15.1'</t>
+  </si>
+  <si>
+    <t>gem 'quiet_assets', '~&gt; 1.0.2', group: :development</t>
+  </si>
+  <si>
+    <t>gem 'date_validator', '~&gt; 0.7.0'</t>
+  </si>
+  <si>
+    <t>gem 'email_validator', '~&gt;1.4.0'</t>
+  </si>
+  <si>
+    <t>gem 'jquery-ui-rails', '~&gt; 4.2.1'</t>
+  </si>
+  <si>
+    <t>group :test do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gem 'rspec-rails', '~&gt; 3.0.0.beta2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gem 'spring-commands-rspec', '~&gt; 1.0.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gem 'capybara', '~&gt; 2.2.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gem 'database_cleaner', '~&gt; 1.2.0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gem 'factory_girl_rails', '~&gt; 4.4.1'</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>『Gemfile』シート参照</t>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/settings.yml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>service:</t>
+  </si>
+  <si>
+    <t>config/settings.ymlファイルを作成</t>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細は『settings.yml』シート参照</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル2</t>
+  </si>
+  <si>
+    <t>レベル3</t>
+  </si>
+  <si>
+    <t>レベル4</t>
+  </si>
+  <si>
+    <t>レベル5</t>
+  </si>
+  <si>
+    <t>レベル6</t>
+  </si>
+  <si>
+    <t>sitetitle: "fwm"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gemfile</t>
+  </si>
+  <si>
+    <t>author: "Gossan"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/routes.rb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルを固定値で持ちたい</t>
+    <rPh sb="5" eb="8">
+      <t>コテイチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rails_configをGemfileに追加
+config/settings.ymｌに設定を追記
+erbファイルからはSettings.～で変数として呼べる</t>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>erbファイルで使えるメソッドを作りたい</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/helpers/application_helper.rbに定義する</t>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS周りの整理</t>
+    <rPh sb="3" eb="4">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の種類に分類</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>app/views/layouts/application.html.erb</t>
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/assets/stylesheetsディレクトリに各種類のディレクトリ内のcssをrequireするファイルを配置</t>
+    <rPh sb="29" eb="30">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/initializers/assets.rbに登録</t>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてに共通</t>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用共通</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業者用共通</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウシャヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面用</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本レイアウト周りの整理</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bootstrapの適用</t>
+    <rPh sb="10" eb="12">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gem 'bootstrap-sass', '~&gt; 3.3.1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/twbs/bootstrap-sass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gem 'sass-rails', '&gt;= 3.2'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>application.css を application.css.scss に名前を変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下を追記</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@import "bootstrap-sprockets";</t>
+  </si>
+  <si>
+    <t>@import "bootstrap";</t>
+  </si>
+  <si>
+    <t>app/assets/javascripts/application.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//= require bootstrap-sprockets</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,16 +708,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,16 +739,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J64"/>
+  <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,236 +1157,241 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C47" s="1" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C58" t="s">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -924,47 +1403,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -975,12 +1571,475 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="7" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="26.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="58.5" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/やったことメモ.xlsx
+++ b/やったことメモ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="step1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Gemfileの編集</t>
     <rPh sb="8" eb="10">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bin/bundle</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -642,10 +638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gem 'bootstrap-sass', '~&gt; 3.3.1'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/twbs/bootstrap-sass</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,7 +646,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>application.css を application.css.scss に名前を変更</t>
+    <t>bundle install --path vendor/bundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#gem 'bootstrap-sass', '~&gt; 3.3.1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app/assets/stylesheets/application.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -668,17 +668,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>@import "bootstrap-sprockets";</t>
-  </si>
-  <si>
-    <t>@import "bootstrap";</t>
+    <t>*= require bootstrap</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>app/assets/javascripts/application.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>//= require bootstrap-sprockets</t>
+    <t>//= require bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config/application.rb の「class Application &lt; Rails::Application」の中に以下を追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>config.assets.paths &lt;&lt; "#{Rails}/vender/assets/fonts"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap-3.3.1-dist.zipをダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解凍し以下のようにコピー</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsの中身⇒vendor/assets/javascriptsへ</t>
+    <rPh sb="3" eb="5">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssの中身⇒vendor/assets/stylesheetsへ</t>
+    <rPh sb="4" eb="6">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fonts⇒vendor/assets/へディレクトリごとコピー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1135,20 +1170,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
@@ -1158,240 +1193,240 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1403,164 +1438,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E14" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E15" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E19" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+      <c r="I43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1639,7 @@
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1585,167 +1650,167 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1773,34 +1838,34 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1811,7 +1876,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1821,7 +1886,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -2012,31 +2077,31 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
